--- a/XLSX_comprobantes_done/mendizabal_vta_20240305.xlsx
+++ b/XLSX_comprobantes_done/mendizabal_vta_20240305.xlsx
@@ -512,13 +512,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A2" t="n">
+        <v>40379573</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>122813</v>
@@ -557,10 +555,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
+      <c r="L2" t="n">
+        <v>16</v>
       </c>
       <c r="M2" t="n">
         <v>3688</v>
@@ -569,13 +565,11 @@
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A3" t="n">
+        <v>40379573</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
         <v>122813</v>
@@ -614,10 +608,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
+      <c r="L3" t="n">
+        <v>16</v>
       </c>
       <c r="M3" t="n">
         <v>3688</v>
@@ -626,13 +618,11 @@
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A4" t="n">
+        <v>40379573</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>122813</v>
@@ -671,10 +661,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L4" t="n">
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>3688</v>
@@ -683,13 +671,11 @@
       <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A5" t="n">
+        <v>40379573</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>122813</v>
@@ -728,10 +714,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L5" t="n">
+        <v>12</v>
       </c>
       <c r="M5" t="n">
         <v>3688</v>
@@ -740,13 +724,11 @@
       <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A6" t="n">
+        <v>40379573</v>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>122813</v>
@@ -785,10 +767,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L6" t="n">
+        <v>12</v>
       </c>
       <c r="M6" t="n">
         <v>3688</v>
@@ -797,13 +777,11 @@
       <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A7" t="n">
+        <v>40379573</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>122813</v>
@@ -842,10 +820,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L7" t="n">
+        <v>12</v>
       </c>
       <c r="M7" t="n">
         <v>3688</v>
@@ -854,13 +830,11 @@
       <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A8" t="n">
+        <v>40379573</v>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>122813</v>
@@ -899,10 +873,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L8" t="n">
+        <v>12</v>
       </c>
       <c r="M8" t="n">
         <v>3688</v>
@@ -911,13 +883,11 @@
       <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A9" t="n">
+        <v>40379573</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>122813</v>
@@ -956,10 +926,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L9" t="n">
+        <v>12</v>
       </c>
       <c r="M9" t="n">
         <v>3688</v>
@@ -968,13 +936,11 @@
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A10" t="n">
+        <v>40379573</v>
       </c>
       <c r="B10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>122813</v>
@@ -1013,10 +979,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L10" t="n">
+        <v>24</v>
       </c>
       <c r="M10" t="n">
         <v>3688</v>
@@ -1025,13 +989,11 @@
       <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A11" t="n">
+        <v>40379573</v>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>122813</v>
@@ -1070,10 +1032,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L11" t="n">
+        <v>24</v>
       </c>
       <c r="M11" t="n">
         <v>3688</v>
@@ -1082,13 +1042,11 @@
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A12" t="n">
+        <v>40379573</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
         <v>122813</v>
@@ -1127,10 +1085,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>36,00</t>
-        </is>
+      <c r="L12" t="n">
+        <v>36</v>
       </c>
       <c r="M12" t="n">
         <v>3688</v>
@@ -1139,13 +1095,11 @@
       <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A13" t="n">
+        <v>40379573</v>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>111544</v>
@@ -1184,10 +1138,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
+      <c r="L13" t="n">
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>3702</v>
@@ -1196,13 +1148,11 @@
       <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A14" t="n">
+        <v>40379573</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>122890</v>
@@ -1241,10 +1191,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>18,00</t>
-        </is>
+      <c r="L14" t="n">
+        <v>18</v>
       </c>
       <c r="M14" t="n">
         <v>3717</v>
@@ -1253,13 +1201,11 @@
       <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A15" t="n">
+        <v>40379573</v>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
         <v>122890</v>
@@ -1298,10 +1244,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L15" t="n">
+        <v>12</v>
       </c>
       <c r="M15" t="n">
         <v>3717</v>
@@ -1310,13 +1254,11 @@
       <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A16" t="n">
+        <v>40379573</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
         <v>122890</v>
@@ -1355,10 +1297,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L16" t="n">
+        <v>24</v>
       </c>
       <c r="M16" t="n">
         <v>3717</v>
@@ -1367,13 +1307,11 @@
       <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A17" t="n">
+        <v>40379573</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>122890</v>
@@ -1412,10 +1350,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>72,00</t>
-        </is>
+      <c r="L17" t="n">
+        <v>72</v>
       </c>
       <c r="M17" t="n">
         <v>3717</v>
@@ -1424,13 +1360,11 @@
       <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A18" t="n">
+        <v>40379573</v>
       </c>
       <c r="B18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>122890</v>
@@ -1469,10 +1403,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>48,00</t>
-        </is>
+      <c r="L18" t="n">
+        <v>48</v>
       </c>
       <c r="M18" t="n">
         <v>3717</v>
@@ -1481,13 +1413,11 @@
       <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A19" t="n">
+        <v>40379573</v>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
         <v>122890</v>
@@ -1526,10 +1456,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L19" t="n">
+        <v>12</v>
       </c>
       <c r="M19" t="n">
         <v>3717</v>
@@ -1538,13 +1466,11 @@
       <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A20" t="n">
+        <v>40379573</v>
       </c>
       <c r="B20" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
         <v>122890</v>
@@ -1583,10 +1509,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L20" t="n">
+        <v>12</v>
       </c>
       <c r="M20" t="n">
         <v>3717</v>
@@ -1595,13 +1519,11 @@
       <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A21" t="n">
+        <v>40379573</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
         <v>122890</v>
@@ -1640,10 +1562,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L21" t="n">
+        <v>24</v>
       </c>
       <c r="M21" t="n">
         <v>3717</v>
@@ -1652,13 +1572,11 @@
       <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A22" t="n">
+        <v>40379573</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
         <v>122890</v>
@@ -1697,10 +1615,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L22" t="n">
+        <v>12</v>
       </c>
       <c r="M22" t="n">
         <v>3717</v>
@@ -1709,13 +1625,11 @@
       <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A23" t="n">
+        <v>40379573</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
         <v>122890</v>
@@ -1754,10 +1668,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L23" t="n">
+        <v>24</v>
       </c>
       <c r="M23" t="n">
         <v>3717</v>
@@ -1766,13 +1678,11 @@
       <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A24" t="n">
+        <v>40379573</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
         <v>122890</v>
@@ -1811,10 +1721,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
+      <c r="L24" t="n">
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>3717</v>
@@ -1823,13 +1731,11 @@
       <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A25" t="n">
+        <v>40379573</v>
       </c>
       <c r="B25" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
         <v>122890</v>
@@ -1868,10 +1774,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L25" t="n">
+        <v>24</v>
       </c>
       <c r="M25" t="n">
         <v>3717</v>
@@ -1880,13 +1784,11 @@
       <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A26" t="n">
+        <v>40379573</v>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
         <v>122890</v>
@@ -1925,10 +1827,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L26" t="n">
+        <v>24</v>
       </c>
       <c r="M26" t="n">
         <v>3717</v>
@@ -1937,13 +1837,11 @@
       <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A27" t="n">
+        <v>40379573</v>
       </c>
       <c r="B27" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
         <v>122890</v>
@@ -1982,10 +1880,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L27" t="n">
+        <v>24</v>
       </c>
       <c r="M27" t="n">
         <v>3717</v>
@@ -1994,13 +1890,11 @@
       <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A28" t="n">
+        <v>40379573</v>
       </c>
       <c r="B28" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
         <v>122890</v>
@@ -2039,10 +1933,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L28" t="n">
+        <v>24</v>
       </c>
       <c r="M28" t="n">
         <v>3717</v>
@@ -2051,13 +1943,11 @@
       <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A29" t="n">
+        <v>40379573</v>
       </c>
       <c r="B29" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
         <v>122890</v>
@@ -2096,10 +1986,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L29" t="n">
+        <v>24</v>
       </c>
       <c r="M29" t="n">
         <v>3717</v>
@@ -2108,13 +1996,11 @@
       <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A30" t="n">
+        <v>40379573</v>
       </c>
       <c r="B30" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C30" t="n">
         <v>122890</v>
@@ -2153,10 +2039,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
+      <c r="L30" t="n">
+        <v>24</v>
       </c>
       <c r="M30" t="n">
         <v>3717</v>
@@ -2165,13 +2049,11 @@
       <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A31" t="n">
+        <v>40379573</v>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C31" t="n">
         <v>122890</v>
@@ -2210,10 +2092,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>36,00</t>
-        </is>
+      <c r="L31" t="n">
+        <v>36</v>
       </c>
       <c r="M31" t="n">
         <v>3717</v>
@@ -2222,13 +2102,11 @@
       <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A32" t="n">
+        <v>40379573</v>
       </c>
       <c r="B32" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
         <v>122890</v>
@@ -2267,10 +2145,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>60,00</t>
-        </is>
+      <c r="L32" t="n">
+        <v>60</v>
       </c>
       <c r="M32" t="n">
         <v>3717</v>
@@ -2279,13 +2155,11 @@
       <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A33" t="n">
+        <v>40379573</v>
       </c>
       <c r="B33" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C33" t="n">
         <v>122890</v>
@@ -2324,10 +2198,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>72,00</t>
-        </is>
+      <c r="L33" t="n">
+        <v>72</v>
       </c>
       <c r="M33" t="n">
         <v>3717</v>
@@ -2336,13 +2208,11 @@
       <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A34" t="n">
+        <v>40379573</v>
       </c>
       <c r="B34" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C34" t="n">
         <v>122890</v>
@@ -2381,10 +2251,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>36,00</t>
-        </is>
+      <c r="L34" t="n">
+        <v>36</v>
       </c>
       <c r="M34" t="n">
         <v>3717</v>
@@ -2393,13 +2261,11 @@
       <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A35" t="n">
+        <v>40379573</v>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C35" t="n">
         <v>159667</v>
@@ -2438,10 +2304,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
+      <c r="L35" t="n">
+        <v>6</v>
       </c>
       <c r="M35" t="n">
         <v>4729</v>
@@ -2450,13 +2314,11 @@
       <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A36" t="n">
+        <v>40379573</v>
       </c>
       <c r="B36" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C36" t="n">
         <v>134022</v>
@@ -2495,10 +2357,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
+      <c r="L36" t="n">
+        <v>8</v>
       </c>
       <c r="M36" t="n">
         <v>4731</v>
@@ -2507,13 +2367,11 @@
       <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A37" t="n">
+        <v>40379573</v>
       </c>
       <c r="B37" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
         <v>134022</v>
@@ -2552,10 +2410,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
+      <c r="L37" t="n">
+        <v>8</v>
       </c>
       <c r="M37" t="n">
         <v>4731</v>
@@ -2564,13 +2420,11 @@
       <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A38" t="n">
+        <v>40379573</v>
       </c>
       <c r="B38" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C38" t="n">
         <v>134022</v>
@@ -2609,10 +2463,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
+      <c r="L38" t="n">
+        <v>8</v>
       </c>
       <c r="M38" t="n">
         <v>4731</v>
@@ -2621,13 +2473,11 @@
       <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A39" t="n">
+        <v>40379573</v>
       </c>
       <c r="B39" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
         <v>134022</v>
@@ -2666,10 +2516,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
+      <c r="L39" t="n">
+        <v>8</v>
       </c>
       <c r="M39" t="n">
         <v>4731</v>
@@ -2678,13 +2526,11 @@
       <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A40" t="n">
+        <v>40379573</v>
       </c>
       <c r="B40" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C40" t="n">
         <v>122315</v>
@@ -2723,10 +2569,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>176,00</t>
-        </is>
+      <c r="L40" t="n">
+        <v>176</v>
       </c>
       <c r="M40" t="n">
         <v>4734</v>
@@ -2735,13 +2579,11 @@
       <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A41" t="n">
+        <v>40379573</v>
       </c>
       <c r="B41" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C41" t="n">
         <v>122315</v>
@@ -2780,10 +2622,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>176,00</t>
-        </is>
+      <c r="L41" t="n">
+        <v>176</v>
       </c>
       <c r="M41" t="n">
         <v>4734</v>
@@ -2792,13 +2632,11 @@
       <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A42" t="n">
+        <v>40379573</v>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C42" t="n">
         <v>190500</v>
@@ -2837,10 +2675,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
+      <c r="L42" t="n">
+        <v>4</v>
       </c>
       <c r="M42" t="n">
         <v>4751</v>
@@ -2849,13 +2685,11 @@
       <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A43" t="n">
+        <v>40379573</v>
       </c>
       <c r="B43" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C43" t="n">
         <v>190500</v>
@@ -2894,10 +2728,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
+      <c r="L43" t="n">
+        <v>4</v>
       </c>
       <c r="M43" t="n">
         <v>4751</v>
@@ -2906,13 +2738,11 @@
       <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A44" t="n">
+        <v>40379573</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C44" t="n">
         <v>190500</v>
@@ -2951,10 +2781,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
+      <c r="L44" t="n">
+        <v>4</v>
       </c>
       <c r="M44" t="n">
         <v>4751</v>
@@ -2963,13 +2791,11 @@
       <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A45" t="n">
+        <v>40379573</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C45" t="n">
         <v>190500</v>
@@ -3008,10 +2834,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
+      <c r="L45" t="n">
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>4751</v>
@@ -3020,13 +2844,11 @@
       <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A46" t="n">
+        <v>40379573</v>
       </c>
       <c r="B46" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
         <v>190500</v>
@@ -3065,10 +2887,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
+      <c r="L46" t="n">
+        <v>4</v>
       </c>
       <c r="M46" t="n">
         <v>4751</v>
@@ -3077,13 +2897,11 @@
       <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A47" t="n">
+        <v>40379573</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C47" t="n">
         <v>111570</v>
@@ -3122,10 +2940,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
+      <c r="L47" t="n">
+        <v>10</v>
       </c>
       <c r="M47" t="n">
         <v>4770</v>
@@ -3134,13 +2950,11 @@
       <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A48" t="n">
+        <v>40379573</v>
       </c>
       <c r="B48" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C48" t="n">
         <v>111570</v>
@@ -3179,10 +2993,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
+      <c r="L48" t="n">
+        <v>12</v>
       </c>
       <c r="M48" t="n">
         <v>4770</v>
@@ -3191,13 +3003,11 @@
       <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A49" t="n">
+        <v>40379573</v>
       </c>
       <c r="B49" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C49" t="n">
         <v>111570</v>
@@ -3236,10 +3046,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
+      <c r="L49" t="n">
+        <v>6</v>
       </c>
       <c r="M49" t="n">
         <v>4770</v>
@@ -3248,13 +3056,11 @@
       <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A50" t="n">
+        <v>40379573</v>
       </c>
       <c r="B50" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C50" t="n">
         <v>111570</v>
@@ -3293,10 +3099,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
+      <c r="L50" t="n">
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>4770</v>
@@ -3305,13 +3109,11 @@
       <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A51" t="n">
+        <v>40379573</v>
       </c>
       <c r="B51" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C51" t="n">
         <v>111570</v>
@@ -3350,10 +3152,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
+      <c r="L51" t="n">
+        <v>3</v>
       </c>
       <c r="M51" t="n">
         <v>4770</v>
@@ -3362,13 +3162,11 @@
       <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>40379573</t>
-        </is>
+      <c r="A52" t="n">
+        <v>40379573</v>
       </c>
       <c r="B52" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C52" t="n">
         <v>111570</v>
@@ -3407,10 +3205,8 @@
           <t>OR</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
+      <c r="L52" t="n">
+        <v>3</v>
       </c>
       <c r="M52" t="n">
         <v>4770</v>
@@ -3465,10 +3261,8 @@
           <t>TotalUnidades</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1,250,00</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
